--- a/correlation_matrix.xlsx
+++ b/correlation_matrix.xlsx
@@ -435,25 +435,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.3176499784908498</v>
+        <v>-0.3064797898273897</v>
       </c>
       <c r="D2">
-        <v>-0.383508570524802</v>
+        <v>-0.386344279724997</v>
       </c>
       <c r="E2">
-        <v>-0.05728295374907413</v>
+        <v>-0.06058224122196573</v>
       </c>
       <c r="F2">
-        <v>0.05953774131958756</v>
+        <v>0.06256097139340007</v>
       </c>
       <c r="G2">
-        <v>-0.07465395727614864</v>
+        <v>-0.08660516750869092</v>
       </c>
       <c r="H2">
-        <v>-0.2428471496288857</v>
+        <v>-0.2389657153130679</v>
       </c>
       <c r="I2">
-        <v>0.1194279614401671</v>
+        <v>0.08477805482370758</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.3176499784908498</v>
+        <v>-0.3064797898273897</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.3034536359945005</v>
+        <v>-0.3095238632964146</v>
       </c>
       <c r="E3">
-        <v>0.1483144870337617</v>
+        <v>0.1442995171432881</v>
       </c>
       <c r="F3">
-        <v>0.01449629465557318</v>
+        <v>0.01117508105687103</v>
       </c>
       <c r="G3">
-        <v>-0.311745510085759</v>
+        <v>-0.2809565950791388</v>
       </c>
       <c r="H3">
-        <v>-0.2673146432260462</v>
+        <v>-0.2931879490999049</v>
       </c>
       <c r="I3">
-        <v>-0.0455876666716835</v>
+        <v>-0.04406649273777501</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.383508570524802</v>
+        <v>-0.386344279724997</v>
       </c>
       <c r="C4">
-        <v>-0.3034536359945005</v>
+        <v>-0.3095238632964146</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>-0.2921951991114256</v>
+        <v>-0.2833361999496855</v>
       </c>
       <c r="F4">
-        <v>0.4170925303382312</v>
+        <v>0.4173728380655626</v>
       </c>
       <c r="G4">
-        <v>-0.0179719896249513</v>
+        <v>-0.02776241825137436</v>
       </c>
       <c r="H4">
-        <v>0.08491321147095467</v>
+        <v>0.09030571773315553</v>
       </c>
       <c r="I4">
-        <v>-0.1625363450872965</v>
+        <v>-0.1581237414350955</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.05728295374907413</v>
+        <v>-0.06058224122196573</v>
       </c>
       <c r="C5">
-        <v>0.1483144870337617</v>
+        <v>0.1442995171432881</v>
       </c>
       <c r="D5">
-        <v>-0.2921951991114256</v>
+        <v>-0.2833361999496855</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.6310880069793487</v>
+        <v>-0.6391423156290782</v>
       </c>
       <c r="G5">
-        <v>-0.1890367634527233</v>
+        <v>-0.2082569186271264</v>
       </c>
       <c r="H5">
-        <v>-0.4525824451041537</v>
+        <v>-0.4439844933124675</v>
       </c>
       <c r="I5">
-        <v>0.2630227554099098</v>
+        <v>0.2651675817993787</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -548,28 +548,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05953774131958756</v>
+        <v>0.06256097139340007</v>
       </c>
       <c r="C6">
-        <v>0.01449629465557318</v>
+        <v>0.01117508105687103</v>
       </c>
       <c r="D6">
-        <v>0.4170925303382312</v>
+        <v>0.4173728380655626</v>
       </c>
       <c r="E6">
-        <v>-0.6310880069793487</v>
+        <v>-0.6391423156290782</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>-0.2653909692178716</v>
+        <v>-0.2427679970494275</v>
       </c>
       <c r="H6">
-        <v>0.2270343629742304</v>
+        <v>0.2077445978952469</v>
       </c>
       <c r="I6">
-        <v>-0.1745853002571745</v>
+        <v>-0.1880992720309855</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -577,28 +577,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.07465395727614864</v>
+        <v>-0.08660516750869092</v>
       </c>
       <c r="C7">
-        <v>-0.311745510085759</v>
+        <v>-0.2809565950791388</v>
       </c>
       <c r="D7">
-        <v>-0.0179719896249513</v>
+        <v>-0.02776241825137436</v>
       </c>
       <c r="E7">
-        <v>-0.1890367634527233</v>
+        <v>-0.2082569186271264</v>
       </c>
       <c r="F7">
-        <v>-0.2653909692178716</v>
+        <v>-0.2427679970494275</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.1545253977331632</v>
+        <v>-0.1612676991496454</v>
       </c>
       <c r="I7">
-        <v>-0.01498338283428473</v>
+        <v>-0.001661419896311592</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -606,28 +606,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.2428471496288857</v>
+        <v>-0.2389657153130679</v>
       </c>
       <c r="C8">
-        <v>-0.2673146432260462</v>
+        <v>-0.2931879490999049</v>
       </c>
       <c r="D8">
-        <v>0.08491321147095467</v>
+        <v>0.09030571773315553</v>
       </c>
       <c r="E8">
-        <v>-0.4525824451041537</v>
+        <v>-0.4439844933124675</v>
       </c>
       <c r="F8">
-        <v>0.2270343629742304</v>
+        <v>0.2077445978952469</v>
       </c>
       <c r="G8">
-        <v>-0.1545253977331632</v>
+        <v>-0.1612676991496454</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>-0.1753897334708897</v>
+        <v>-0.1430806806433398</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -635,25 +635,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1194279614401671</v>
+        <v>0.08477805482370758</v>
       </c>
       <c r="C9">
-        <v>-0.0455876666716835</v>
+        <v>-0.04406649273777501</v>
       </c>
       <c r="D9">
-        <v>-0.1625363450872965</v>
+        <v>-0.1581237414350955</v>
       </c>
       <c r="E9">
-        <v>0.2630227554099098</v>
+        <v>0.2651675817993787</v>
       </c>
       <c r="F9">
-        <v>-0.1745853002571745</v>
+        <v>-0.1880992720309855</v>
       </c>
       <c r="G9">
-        <v>-0.01498338283428473</v>
+        <v>-0.001661419896311592</v>
       </c>
       <c r="H9">
-        <v>-0.1753897334708897</v>
+        <v>-0.1430806806433398</v>
       </c>
       <c r="I9">
         <v>1</v>
